--- a/Excel/Truth Table.xlsx
+++ b/Excel/Truth Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vit\HDL\Task 1\vhdlTask1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F45C7F3-CAD1-4513-9476-0C0E37C1E836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE379BDC-F3AA-4F20-9D7A-0CC24C32D248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A06449A6-67F8-9043-91DF-1CFB8E872B81}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -604,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CAA3BF-B36C-DB4A-92E3-38F41F272E88}">
   <dimension ref="B1:R64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1630,12 +1619,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="B59:C59"/>
@@ -1652,6 +1635,12 @@
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
